--- a/team_specific_matrix/Monmouth_A.xlsx
+++ b/team_specific_matrix/Monmouth_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="C2">
-        <v>0.5490196078431373</v>
+        <v>0.5543859649122806</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0196078431372549</v>
+        <v>0.02456140350877193</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1372549019607843</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09411764705882353</v>
+        <v>0.0912280701754386</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02684563758389262</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C3">
-        <v>0.06040268456375839</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01342281879194631</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.006711409395973154</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="P3">
-        <v>0.7114093959731543</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1812080536912752</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03333333333333333</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4666666666666667</v>
+        <v>0.4411764705882353</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8571428571428571</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1428571428571428</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04571428571428571</v>
+        <v>0.04977375565610859</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03428571428571429</v>
+        <v>0.04072398190045249</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2571428571428571</v>
+        <v>0.2398190045248869</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02857142857142857</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1542857142857143</v>
+        <v>0.1402714932126697</v>
       </c>
       <c r="R6">
-        <v>0.06285714285714286</v>
+        <v>0.07239819004524888</v>
       </c>
       <c r="S6">
-        <v>0.4171428571428571</v>
+        <v>0.4253393665158371</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1075949367088608</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0189873417721519</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="E7">
-        <v>0.006329113924050633</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="F7">
-        <v>0.04430379746835443</v>
+        <v>0.05025125628140704</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1455696202531646</v>
+        <v>0.1407035175879397</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02531645569620253</v>
+        <v>0.03517587939698492</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1582278481012658</v>
+        <v>0.1557788944723618</v>
       </c>
       <c r="R7">
-        <v>0.120253164556962</v>
+        <v>0.1055276381909548</v>
       </c>
       <c r="S7">
-        <v>0.3734177215189873</v>
+        <v>0.3919597989949749</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0856353591160221</v>
+        <v>0.07586206896551724</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01933701657458563</v>
+        <v>0.01609195402298851</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05524861878453038</v>
+        <v>0.05977011494252873</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1408839779005525</v>
+        <v>0.128735632183908</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02762430939226519</v>
+        <v>0.02528735632183908</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1850828729281768</v>
+        <v>0.1862068965517241</v>
       </c>
       <c r="R8">
-        <v>0.09392265193370165</v>
+        <v>0.09425287356321839</v>
       </c>
       <c r="S8">
-        <v>0.3922651933701657</v>
+        <v>0.4137931034482759</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09793814432989691</v>
+        <v>0.1054852320675106</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005154639175257732</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07216494845360824</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.134020618556701</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02061855670103093</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1804123711340206</v>
+        <v>0.1687763713080169</v>
       </c>
       <c r="R9">
-        <v>0.1134020618556701</v>
+        <v>0.1181434599156118</v>
       </c>
       <c r="S9">
-        <v>0.3762886597938144</v>
+        <v>0.3924050632911392</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1132420091324201</v>
+        <v>0.1048573631457209</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0182648401826484</v>
+        <v>0.01773323053199691</v>
       </c>
       <c r="E10">
-        <v>0.006392694063926941</v>
+        <v>0.006168080185042405</v>
       </c>
       <c r="F10">
-        <v>0.06940639269406393</v>
+        <v>0.07324595219737856</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1150684931506849</v>
+        <v>0.1148804934464148</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01735159817351598</v>
+        <v>0.01850424055512722</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2237442922374429</v>
+        <v>0.2158828064764842</v>
       </c>
       <c r="R10">
-        <v>0.07579908675799087</v>
+        <v>0.07478797224363917</v>
       </c>
       <c r="S10">
-        <v>0.3607305936073059</v>
+        <v>0.3739398612181958</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1259842519685039</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09055118110236221</v>
+        <v>0.0915032679738562</v>
       </c>
       <c r="K11">
-        <v>0.1692913385826772</v>
+        <v>0.1535947712418301</v>
       </c>
       <c r="L11">
-        <v>0.594488188976378</v>
+        <v>0.6143790849673203</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01968503937007874</v>
+        <v>0.02287581699346405</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7037037037037037</v>
+        <v>0.7135678391959799</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2037037037037037</v>
+        <v>0.1959798994974874</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="L12">
-        <v>0.04320987654320987</v>
+        <v>0.03517587939698492</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04938271604938271</v>
+        <v>0.05025125628140704</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08333333333333333</v>
+        <v>0.1081081081081081</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02197802197802198</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1813186813186813</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="I15">
-        <v>0.06043956043956044</v>
+        <v>0.05652173913043478</v>
       </c>
       <c r="J15">
-        <v>0.3516483516483517</v>
+        <v>0.3434782608695652</v>
       </c>
       <c r="K15">
-        <v>0.07142857142857142</v>
+        <v>0.07391304347826087</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04945054945054945</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2637362637362637</v>
+        <v>0.2695652173913043</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02515723270440252</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1446540880503145</v>
+        <v>0.1325966850828729</v>
       </c>
       <c r="I16">
-        <v>0.1383647798742138</v>
+        <v>0.143646408839779</v>
       </c>
       <c r="J16">
-        <v>0.3270440251572327</v>
+        <v>0.3370165745856354</v>
       </c>
       <c r="K16">
-        <v>0.0880503144654088</v>
+        <v>0.08839779005524862</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02515723270440252</v>
+        <v>0.03314917127071823</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0440251572327044</v>
+        <v>0.04419889502762431</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2075471698113208</v>
+        <v>0.1988950276243094</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01474201474201474</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1916461916461916</v>
+        <v>0.1885593220338983</v>
       </c>
       <c r="I17">
-        <v>0.1031941031941032</v>
+        <v>0.1059322033898305</v>
       </c>
       <c r="J17">
-        <v>0.4152334152334152</v>
+        <v>0.413135593220339</v>
       </c>
       <c r="K17">
-        <v>0.09090909090909091</v>
+        <v>0.08898305084745763</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01474201474201474</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N17">
-        <v>0.004914004914004914</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="O17">
-        <v>0.04914004914004914</v>
+        <v>0.04449152542372881</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1154791154791155</v>
+        <v>0.1207627118644068</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005813953488372093</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1802325581395349</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="I18">
-        <v>0.1395348837209302</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="J18">
-        <v>0.3720930232558139</v>
+        <v>0.357487922705314</v>
       </c>
       <c r="K18">
-        <v>0.08139534883720931</v>
+        <v>0.0821256038647343</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01744186046511628</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06395348837209303</v>
+        <v>0.06280193236714976</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1395348837209302</v>
+        <v>0.1449275362318841</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01237842617152962</v>
+        <v>0.01572551822730522</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1812555260831123</v>
+        <v>0.1801286633309507</v>
       </c>
       <c r="I19">
-        <v>0.08488063660477453</v>
+        <v>0.08506075768406005</v>
       </c>
       <c r="J19">
-        <v>0.3713527851458886</v>
+        <v>0.359542530378842</v>
       </c>
       <c r="K19">
-        <v>0.1140583554376658</v>
+        <v>0.1150822015725518</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01061007957559682</v>
+        <v>0.01572551822730522</v>
       </c>
       <c r="N19">
-        <v>0.001768346595932803</v>
+        <v>0.002144388849177984</v>
       </c>
       <c r="O19">
-        <v>0.0636604774535809</v>
+        <v>0.06790564689063616</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1600353669319187</v>
+        <v>0.1586847748391708</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Monmouth_A.xlsx
+++ b/team_specific_matrix/Monmouth_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1894736842105263</v>
+        <v>0.1955128205128205</v>
       </c>
       <c r="C2">
-        <v>0.5543859649122806</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02456140350877193</v>
+        <v>0.02243589743589744</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1403508771929824</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0912280701754386</v>
+        <v>0.08653846153846154</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02941176470588235</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="C3">
-        <v>0.05882352941176471</v>
+        <v>0.05978260869565218</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02352941176470588</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.005882352941176471</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="P3">
-        <v>0.7058823529411765</v>
+        <v>0.7065217391304348</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1764705882352941</v>
+        <v>0.1793478260869565</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02941176470588235</v>
+        <v>0.05</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5294117647058824</v>
+        <v>0.575</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4411764705882353</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04977375565610859</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04072398190045249</v>
+        <v>0.04032258064516129</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2398190045248869</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03167420814479638</v>
+        <v>0.0282258064516129</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1402714932126697</v>
+        <v>0.1330645161290323</v>
       </c>
       <c r="R6">
-        <v>0.07239819004524888</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="S6">
-        <v>0.4253393665158371</v>
+        <v>0.4112903225806452</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09547738693467336</v>
+        <v>0.08597285067873303</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01507537688442211</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="E7">
-        <v>0.01005025125628141</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="F7">
-        <v>0.05025125628140704</v>
+        <v>0.04524886877828054</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1407035175879397</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03517587939698492</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1557788944723618</v>
+        <v>0.1583710407239819</v>
       </c>
       <c r="R7">
-        <v>0.1055276381909548</v>
+        <v>0.1040723981900453</v>
       </c>
       <c r="S7">
-        <v>0.3919597989949749</v>
+        <v>0.3981900452488688</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07586206896551724</v>
+        <v>0.07478632478632478</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01609195402298851</v>
+        <v>0.01495726495726496</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05977011494252873</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.128735632183908</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02528735632183908</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1862068965517241</v>
+        <v>0.1837606837606838</v>
       </c>
       <c r="R8">
-        <v>0.09425287356321839</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="S8">
-        <v>0.4137931034482759</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1054852320675106</v>
+        <v>0.1026615969581749</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008438818565400843</v>
+        <v>0.007604562737642586</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06329113924050633</v>
+        <v>0.05703422053231939</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1265822784810127</v>
+        <v>0.1292775665399239</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01687763713080169</v>
+        <v>0.01520912547528517</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1687763713080169</v>
+        <v>0.1711026615969582</v>
       </c>
       <c r="R9">
-        <v>0.1181434599156118</v>
+        <v>0.1140684410646388</v>
       </c>
       <c r="S9">
-        <v>0.3924050632911392</v>
+        <v>0.403041825095057</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1048573631457209</v>
+        <v>0.1026878015161957</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01773323053199691</v>
+        <v>0.01998621640248105</v>
       </c>
       <c r="E10">
-        <v>0.006168080185042405</v>
+        <v>0.006202618883528601</v>
       </c>
       <c r="F10">
-        <v>0.07324595219737856</v>
+        <v>0.07649896623018608</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1148804934464148</v>
+        <v>0.1150930392832529</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01850424055512722</v>
+        <v>0.01929703652653342</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2158828064764842</v>
+        <v>0.217091660923501</v>
       </c>
       <c r="R10">
-        <v>0.07478797224363917</v>
+        <v>0.0771881461061337</v>
       </c>
       <c r="S10">
-        <v>0.3739398612181958</v>
+        <v>0.3659545141281875</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1176470588235294</v>
+        <v>0.1223880597014925</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0915032679738562</v>
+        <v>0.08656716417910448</v>
       </c>
       <c r="K11">
-        <v>0.1535947712418301</v>
+        <v>0.1582089552238806</v>
       </c>
       <c r="L11">
-        <v>0.6143790849673203</v>
+        <v>0.6119402985074627</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02287581699346405</v>
+        <v>0.0208955223880597</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7135678391959799</v>
+        <v>0.7201834862385321</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1959798994974874</v>
+        <v>0.1880733944954129</v>
       </c>
       <c r="K12">
-        <v>0.005025125628140704</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="L12">
-        <v>0.03517587939698492</v>
+        <v>0.04128440366972477</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05025125628140704</v>
+        <v>0.04587155963302753</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7027027027027027</v>
+        <v>0.725</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1891891891891892</v>
+        <v>0.175</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1081081081081081</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02173913043478261</v>
+        <v>0.01937984496124031</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1695652173913043</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="I15">
-        <v>0.05652173913043478</v>
+        <v>0.05426356589147287</v>
       </c>
       <c r="J15">
-        <v>0.3434782608695652</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="K15">
-        <v>0.07391304347826087</v>
+        <v>0.06589147286821706</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06521739130434782</v>
+        <v>0.07364341085271318</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2695652173913043</v>
+        <v>0.2596899224806202</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02209944751381215</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1325966850828729</v>
+        <v>0.1231527093596059</v>
       </c>
       <c r="I16">
-        <v>0.143646408839779</v>
+        <v>0.1330049261083744</v>
       </c>
       <c r="J16">
-        <v>0.3370165745856354</v>
+        <v>0.3497536945812808</v>
       </c>
       <c r="K16">
-        <v>0.08839779005524862</v>
+        <v>0.09359605911330049</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03314917127071823</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04419889502762431</v>
+        <v>0.04926108374384237</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1988950276243094</v>
+        <v>0.1970443349753695</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01694915254237288</v>
+        <v>0.0210727969348659</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1885593220338983</v>
+        <v>0.181992337164751</v>
       </c>
       <c r="I17">
-        <v>0.1059322033898305</v>
+        <v>0.1053639846743295</v>
       </c>
       <c r="J17">
-        <v>0.413135593220339</v>
+        <v>0.4061302681992337</v>
       </c>
       <c r="K17">
-        <v>0.08898305084745763</v>
+        <v>0.08812260536398467</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01694915254237288</v>
+        <v>0.01915708812260536</v>
       </c>
       <c r="N17">
-        <v>0.00423728813559322</v>
+        <v>0.003831417624521073</v>
       </c>
       <c r="O17">
-        <v>0.04449152542372881</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1207627118644068</v>
+        <v>0.1283524904214559</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.004830917874396135</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1884057971014493</v>
+        <v>0.1790393013100437</v>
       </c>
       <c r="I18">
-        <v>0.1449275362318841</v>
+        <v>0.1397379912663755</v>
       </c>
       <c r="J18">
-        <v>0.357487922705314</v>
+        <v>0.3755458515283843</v>
       </c>
       <c r="K18">
-        <v>0.0821256038647343</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01449275362318841</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06280193236714976</v>
+        <v>0.05676855895196507</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1449275362318841</v>
+        <v>0.148471615720524</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01572551822730522</v>
+        <v>0.01499348109517601</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1801286633309507</v>
+        <v>0.1799217731421121</v>
       </c>
       <c r="I19">
-        <v>0.08506075768406005</v>
+        <v>0.08865710560625815</v>
       </c>
       <c r="J19">
-        <v>0.359542530378842</v>
+        <v>0.3617992177314211</v>
       </c>
       <c r="K19">
-        <v>0.1150822015725518</v>
+        <v>0.1140808344198175</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01572551822730522</v>
+        <v>0.01434159061277705</v>
       </c>
       <c r="N19">
-        <v>0.002144388849177984</v>
+        <v>0.002607561929595828</v>
       </c>
       <c r="O19">
-        <v>0.06790564689063616</v>
+        <v>0.06910039113428944</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1586847748391708</v>
+        <v>0.1544980443285528</v>
       </c>
     </row>
   </sheetData>
